--- a/tables/itss1.xlsx
+++ b/tables/itss1.xlsx
@@ -474,22 +474,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G2" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
@@ -503,22 +503,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G3" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
@@ -535,19 +535,19 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
         <v>73</v>
       </c>
       <c r="G4" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
@@ -558,25 +558,25 @@
         <v>5</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F5" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="n">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
@@ -587,25 +587,25 @@
         <v>6</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G6" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>255</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
@@ -622,19 +622,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F7" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G7" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>205</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8">
@@ -645,25 +645,25 @@
         <v>8</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F8" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="G8" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
@@ -674,25 +674,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F9" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G9" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10">
@@ -703,25 +703,25 @@
         <v>10</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F10" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G10" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11">
@@ -732,25 +732,25 @@
         <v>26</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G11" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12">
@@ -767,19 +767,19 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F12" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="G12" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13">
@@ -796,19 +796,19 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F13" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G13" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
@@ -819,25 +819,25 @@
         <v>29</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G14" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>253</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15">
@@ -851,22 +851,22 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G15" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16">
@@ -877,25 +877,25 @@
         <v>31</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F16" t="n">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="G16" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -909,22 +909,22 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
+        <v>62</v>
+      </c>
+      <c r="F17" t="n">
         <v>76</v>
       </c>
-      <c r="F17" t="n">
-        <v>50</v>
-      </c>
       <c r="G17" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
@@ -935,25 +935,25 @@
         <v>33</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>193</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19">
@@ -967,22 +967,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F19" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="G19" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>227</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20">
@@ -996,22 +996,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F20" t="n">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G20" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H20" t="n">
         <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>212</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
@@ -1022,25 +1022,25 @@
         <v>64</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F21" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G21" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>219</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22">
@@ -1051,25 +1051,25 @@
         <v>65</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>222</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1080,25 +1080,25 @@
         <v>66</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G23" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
@@ -1109,25 +1109,25 @@
         <v>67</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G24" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
@@ -1144,19 +1144,19 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F25" t="n">
+        <v>81</v>
+      </c>
+      <c r="G25" t="n">
         <v>56</v>
       </c>
-      <c r="G25" t="n">
-        <v>82</v>
-      </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
@@ -1167,25 +1167,25 @@
         <v>69</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F26" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G26" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>199</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
@@ -1199,22 +1199,22 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F27" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G27" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
@@ -1225,25 +1225,25 @@
         <v>71</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F28" t="n">
         <v>51</v>
       </c>
       <c r="G28" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
@@ -1260,19 +1260,19 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F29" t="n">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G29" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>224</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
@@ -1286,22 +1286,22 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F30" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G30" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>252</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
@@ -1312,25 +1312,25 @@
         <v>74</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F31" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G31" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H31" t="n">
         <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>217</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
@@ -1341,25 +1341,25 @@
         <v>75</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="n">
+        <v>55</v>
+      </c>
+      <c r="F32" t="n">
         <v>64</v>
       </c>
-      <c r="F32" t="n">
-        <v>66</v>
-      </c>
       <c r="G32" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33">
@@ -1376,19 +1376,19 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F33" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G33" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34">
@@ -1399,25 +1399,25 @@
         <v>77</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G34" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H34" t="n">
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35">
@@ -1434,19 +1434,19 @@
         <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F35" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G35" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36">
@@ -1460,22 +1460,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F36" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G36" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37">
@@ -1486,25 +1486,25 @@
         <v>80</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F37" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G37" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>268</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38">
@@ -1518,22 +1518,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F38" t="n">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G38" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>193</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
@@ -1544,25 +1544,25 @@
         <v>82</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F39" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G39" t="n">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40">
@@ -1573,25 +1573,25 @@
         <v>83</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F40" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G40" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I40" t="n">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
@@ -1608,19 +1608,19 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F41" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G41" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42">
@@ -1631,25 +1631,25 @@
         <v>85</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F42" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G42" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43">
@@ -1660,25 +1660,25 @@
         <v>122</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F43" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G43" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>204</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44">
@@ -1689,25 +1689,25 @@
         <v>123</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F44" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G44" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I44" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45">
@@ -1718,25 +1718,25 @@
         <v>124</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F45" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46">
@@ -1747,25 +1747,25 @@
         <v>125</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F46" t="n">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47">
@@ -1776,25 +1776,25 @@
         <v>126</v>
       </c>
       <c r="C47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="F47" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G47" t="n">
         <v>83</v>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>207</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
@@ -1805,25 +1805,25 @@
         <v>127</v>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F48" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G48" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49">
@@ -1834,25 +1834,25 @@
         <v>128</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F49" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>195</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50">
@@ -1863,25 +1863,25 @@
         <v>129</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F50" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="G50" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51">
@@ -1892,25 +1892,25 @@
         <v>130</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G51" t="n">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>199</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
